--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D7327A-40C7-4790-84F9-F53C3F10E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420D12C-CD84-44E0-851F-0667D7CA368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420D12C-CD84-44E0-851F-0667D7CA368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F4910-7395-4D6C-9A0E-3F49A1D7165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F4910-7395-4D6C-9A0E-3F49A1D7165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628910F-E8A5-42C6-921E-FC3F21886D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628910F-E8A5-42C6-921E-FC3F21886D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA33F2-9BD5-4939-B793-BB0B0D8B88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA33F2-9BD5-4939-B793-BB0B0D8B88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710B17F-842B-4476-BEE9-4F06E893E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710B17F-842B-4476-BEE9-4F06E893E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15AD61-4A7A-4E4E-914D-669D462586D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15AD61-4A7A-4E4E-914D-669D462586D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFF718-A9ED-43A4-B117-91B457ADE5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFF718-A9ED-43A4-B117-91B457ADE5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C878527-66E9-4423-AFB2-5EC0B0E5F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>electricity used in road transport</t>
+  </si>
+  <si>
+    <t>NCAP_AF</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3058,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3085,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3609,10 +3612,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3729,49 +3732,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+    <row r="9" spans="1:11">
+      <c r="C9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2222</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3779,22 +3782,22 @@
         <v>70</v>
       </c>
       <c r="E14" s="11">
+        <v>2222</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11">
         <v>8888</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="13"/>
@@ -3819,9 +3822,7 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3833,62 +3834,64 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25">
+      <c r="A21" t="s">
         <v>208</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>211</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>209</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>210</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="13"/>
@@ -3912,20 +3915,16 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25"/>
@@ -4151,6 +4150,21 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C878527-66E9-4423-AFB2-5EC0B0E5F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136709FE-2C53-417F-89A2-F28C49E5C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136709FE-2C53-417F-89A2-F28C49E5C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2705DE-FADB-4BC4-8EBD-D6EAED6F7526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2705DE-FADB-4BC4-8EBD-D6EAED6F7526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715181EE-FF34-4D54-8588-8E24E10DD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715181EE-FF34-4D54-8588-8E24E10DD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17DE6F-BB39-47B0-8193-92B73BC3F9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17DE6F-BB39-47B0-8193-92B73BC3F9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B00EC2B-AB19-4797-832A-DF4DEFB292AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B00EC2B-AB19-4797-832A-DF4DEFB292AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF95A2-FCFC-43CD-8D05-DD583126D455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="223">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -686,6 +686,27 @@
   </si>
   <si>
     <t>ITA</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ELC_Sol-ITA</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Solar electricity produced in - Italy</t>
+  </si>
+  <si>
+    <t>ELC_Win-ITA</t>
+  </si>
+  <si>
+    <t>Wind electricity produced in - Italy</t>
   </si>
 </sst>
 </file>
@@ -3086,7 +3107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -3104,7 +3125,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3116,7 +3137,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3141,8 +3162,23 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3152,16 +3188,52 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="M5">
+        <v>249</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="M6">
+        <v>253</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>219</v>
+      </c>
+      <c r="R6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3169,7 +3241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3185,7 +3257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3193,7 +3265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3209,7 +3281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3217,7 +3289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3225,7 +3297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3245,7 +3317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF95A2-FCFC-43CD-8D05-DD583126D455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAC2312-F4E1-435A-9031-4C8D53EEF470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -3107,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3125,7 +3125,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3136,8 +3136,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3162,23 +3169,23 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3188,52 +3195,46 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="M5">
-        <v>249</v>
+      <c r="M5" t="s">
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="O5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:17">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="M6">
-        <v>253</v>
+      <c r="M6" t="s">
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:17">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:17">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:17">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAC2312-F4E1-435A-9031-4C8D53EEF470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6D049-16A2-47F0-BDA3-1CF465C64B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6D049-16A2-47F0-BDA3-1CF465C64B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0D2C3-1947-4157-8CAC-657BE8426B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0D2C3-1947-4157-8CAC-657BE8426B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60557E-A4D9-4AD9-B032-D763742679B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60557E-A4D9-4AD9-B032-D763742679B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B05DF-38FB-4787-85F9-7E38A2EABB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B05DF-38FB-4787-85F9-7E38A2EABB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6522400-2617-4AA9-80A7-06F7D3819D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6522400-2617-4AA9-80A7-06F7D3819D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526D9EB-0610-40A4-A7D4-7092B8437254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526D9EB-0610-40A4-A7D4-7092B8437254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C160E5C-D90B-4373-BDC6-2C54BBA28E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C160E5C-D90B-4373-BDC6-2C54BBA28E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34246A3-F6C8-43AB-A196-2E9A62789B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34246A3-F6C8-43AB-A196-2E9A62789B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF9B0D-94D5-4DE6-A767-3DDDFFCC6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF9B0D-94D5-4DE6-A767-3DDDFFCC6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4497F-5AD1-4338-9352-36C593C16BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4497F-5AD1-4338-9352-36C593C16BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D865F-F16F-4207-8DAF-6D8965B25572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D865F-F16F-4207-8DAF-6D8965B25572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD9B4A-DFDB-4069-958C-76F8248A14E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD9B4A-DFDB-4069-958C-76F8248A14E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DFA33-10D5-4728-8184-2336BDD6E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -259,27 +259,6 @@
     <t>IMPDEMZ</t>
   </si>
   <si>
-    <t>~TFM_INS-txt</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>pset_set</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>cset_cn</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>t_neg_andor</t>
-  </si>
-  <si>
     <t>~Currencies</t>
   </si>
   <si>
@@ -664,18 +643,6 @@
     <t>kt</t>
   </si>
   <si>
-    <t>prc_tsl</t>
-  </si>
-  <si>
-    <t>coal,nuclear</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
     <t>elc_roadtransport</t>
   </si>
   <si>
@@ -683,6 +650,12 @@
   </si>
   <si>
     <t>NCAP_AF</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>co2net</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3082,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3107,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q20"/>
+  <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3179,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>11</v>
@@ -3199,16 +3172,16 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -3222,16 +3195,16 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -3365,10 +3338,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3382,16 +3355,32 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
         <v>205</v>
       </c>
-      <c r="D20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" t="s">
-        <v>207</v>
+      <c r="E22" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3687,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3807,7 +3796,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="11" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -3905,59 +3894,43 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
-      <c r="A20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+    <row r="19" spans="1:13" ht="14.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
     </row>
     <row r="21" spans="1:13" ht="14.25">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>209</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>210</v>
-      </c>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -3966,38 +3939,50 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+    <row r="22" spans="1:13" ht="14.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25"/>
@@ -4283,10 +4268,10 @@
       <c r="J2"/>
       <c r="K2" s="13"/>
       <c r="L2" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
@@ -4301,7 +4286,7 @@
       <c r="J3"/>
       <c r="K3" s="13"/>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>53</v>
@@ -4316,10 +4301,10 @@
         <v>68</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U3" s="4">
         <v>2022</v>
@@ -4340,11 +4325,11 @@
       <c r="J4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M4" s="6"/>
       <c r="Q4" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U4" s="11">
         <v>0.05</v>
@@ -4365,13 +4350,13 @@
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
       <c r="L5" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U5" s="11">
         <v>1</v>
@@ -4390,10 +4375,10 @@
       <c r="J6" s="6"/>
       <c r="K6" s="13"/>
       <c r="L6" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U6" s="11">
         <v>2025</v>
@@ -4403,10 +4388,10 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
       <c r="L7" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="U7" s="11">
         <v>1</v>
@@ -4416,16 +4401,16 @@
       <c r="J8" s="6"/>
       <c r="K8" s="13"/>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U8" s="11">
         <v>2.2201</v>
@@ -4435,16 +4420,16 @@
       <c r="J9" s="6"/>
       <c r="K9" s="13"/>
       <c r="L9" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U9" s="11">
         <v>2.1427</v>
@@ -4452,23 +4437,23 @@
     </row>
     <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
       <c r="D10" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="13"/>
       <c r="L10" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="U10" s="11">
         <v>2.077</v>
@@ -4476,27 +4461,27 @@
     </row>
     <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="13"/>
       <c r="L11" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U11" s="11">
         <v>2.0358000000000001</v>
@@ -4504,26 +4489,26 @@
     </row>
     <row r="12" spans="2:22" ht="13.15">
       <c r="D12" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="6">
         <v>1055.55</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U12" s="11">
         <v>1.9870000000000001</v>
@@ -4531,26 +4516,26 @@
     </row>
     <row r="13" spans="2:22" ht="13.15">
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6">
         <v>3.6</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U13" s="11">
         <v>1.9192</v>
@@ -4559,26 +4544,26 @@
     <row r="14" spans="2:22" ht="13.15">
       <c r="B14" s="13"/>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F14" s="6">
         <v>1000</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U14" s="11">
         <v>1.8468</v>
@@ -4587,26 +4572,26 @@
     <row r="15" spans="2:22" ht="13.15">
       <c r="B15" s="13"/>
       <c r="D15" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F15" s="6">
         <v>1000</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U15" s="11">
         <v>1.7799</v>
@@ -4615,26 +4600,26 @@
     <row r="16" spans="2:22" ht="13.15">
       <c r="B16" s="13"/>
       <c r="D16" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F16" s="6">
         <v>1.05555</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U16" s="11">
         <v>1.722</v>
@@ -4642,26 +4627,26 @@
     </row>
     <row r="17" spans="4:21" ht="13.15">
       <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U17" s="11">
         <v>1.6836</v>
@@ -4669,25 +4654,25 @@
     </row>
     <row r="18" spans="4:21" ht="13.15">
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F18" s="6">
         <v>41.868000000000002</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U18" s="11">
         <v>1.6446000000000001</v>
@@ -4695,25 +4680,25 @@
     </row>
     <row r="19" spans="4:21" ht="13.15">
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U19" s="11">
         <v>1.6102000000000001</v>
@@ -4721,25 +4706,25 @@
     </row>
     <row r="20" spans="4:21" ht="13.15">
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6">
         <v>1000000</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U20" s="11">
         <v>1.5770999999999999</v>
@@ -4747,25 +4732,25 @@
     </row>
     <row r="21" spans="4:21" ht="13.15">
       <c r="D21" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6">
         <v>1000</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U21" s="11">
         <v>1.5488</v>
@@ -4773,25 +4758,25 @@
     </row>
     <row r="22" spans="4:21" ht="13.15">
       <c r="D22" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F22" s="6">
         <v>5.8615199999999996</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U22" s="11">
         <v>1.5224</v>
@@ -4799,25 +4784,25 @@
     </row>
     <row r="23" spans="4:21" ht="13.15">
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F23" s="6">
         <v>1E-3</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U23" s="11">
         <v>1.5058</v>
@@ -4825,25 +4810,25 @@
     </row>
     <row r="24" spans="4:21" ht="13.15">
       <c r="D24" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6">
         <v>1000</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U24" s="11">
         <v>1.4844999999999999</v>
@@ -4851,25 +4836,25 @@
     </row>
     <row r="25" spans="4:21" ht="13.15">
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F25" s="6">
         <v>37.68</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="U25" s="11">
         <v>1.4518</v>
@@ -4877,25 +4862,25 @@
     </row>
     <row r="26" spans="4:21" ht="13.15">
       <c r="D26" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F26" s="6">
         <v>2139.4548</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U26" s="11">
         <v>1.4198999999999999</v>
@@ -4903,25 +4888,25 @@
     </row>
     <row r="27" spans="4:21" ht="13.15">
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27" s="6">
         <v>2.78</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="U27" s="11">
         <v>1.3986000000000001</v>
@@ -4929,25 +4914,25 @@
     </row>
     <row r="28" spans="4:21" ht="13.15">
       <c r="D28" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F28" s="6">
         <v>3.6</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U28" s="11">
         <v>1.3727</v>
@@ -4955,25 +4940,25 @@
     </row>
     <row r="29" spans="4:21" ht="13.15">
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U29" s="11">
         <v>1.3369</v>
@@ -4981,25 +4966,25 @@
     </row>
     <row r="30" spans="4:21" ht="13.15">
       <c r="D30" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6">
         <v>31.536000000000001</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U30" s="11">
         <v>1.2967</v>
@@ -5007,25 +4992,25 @@
     </row>
     <row r="31" spans="4:21" ht="13.15">
       <c r="D31" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F31" s="6">
         <v>120</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U31" s="11">
         <v>1.2583</v>
@@ -5033,25 +5018,25 @@
     </row>
     <row r="32" spans="4:21" ht="13.15">
       <c r="D32" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F32" s="11">
         <v>5.8615199999999996</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U32" s="11">
         <v>1.2253000000000001</v>
@@ -5059,25 +5044,25 @@
     </row>
     <row r="33" spans="4:21" ht="13.15">
       <c r="D33" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F33" s="11">
         <v>54</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="U33" s="11">
         <v>1.2023999999999999</v>
@@ -5085,16 +5070,16 @@
     </row>
     <row r="34" spans="4:21" ht="13.15">
       <c r="L34" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U34" s="11">
         <v>1.1931</v>
@@ -5102,16 +5087,16 @@
     </row>
     <row r="35" spans="4:21" ht="13.15">
       <c r="L35" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U35" s="11">
         <v>1.1793</v>
@@ -5119,16 +5104,16 @@
     </row>
     <row r="36" spans="4:21" ht="13.15">
       <c r="L36" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="U36" s="11">
         <v>1.1552</v>
@@ -5136,16 +5121,16 @@
     </row>
     <row r="37" spans="4:21" ht="13.15">
       <c r="L37" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U37" s="11">
         <v>1.1334</v>
@@ -5153,16 +5138,16 @@
     </row>
     <row r="38" spans="4:21" ht="13.15">
       <c r="L38" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U38" s="11">
         <v>1.1136999999999999</v>
@@ -5170,16 +5155,16 @@
     </row>
     <row r="39" spans="4:21" ht="13.15">
       <c r="L39" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="U39" s="11">
         <v>1.0934999999999999</v>
@@ -5187,16 +5172,16 @@
     </row>
     <row r="40" spans="4:21" ht="13.15">
       <c r="L40" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U40" s="11">
         <v>1.0831</v>
@@ -5204,16 +5189,16 @@
     </row>
     <row r="41" spans="4:21" ht="13.15">
       <c r="L41" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="U41" s="11">
         <v>1.0719000000000001</v>
@@ -5221,16 +5206,16 @@
     </row>
     <row r="42" spans="4:21" ht="13.15">
       <c r="L42" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U42" s="11">
         <v>1.0519000000000001</v>
@@ -5238,16 +5223,16 @@
     </row>
     <row r="43" spans="4:21" ht="13.15">
       <c r="L43" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="U43" s="11">
         <v>1.0274000000000001</v>
@@ -5255,16 +5240,16 @@
     </row>
     <row r="44" spans="4:21" ht="13.15">
       <c r="L44" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U44" s="11">
         <v>1.0091000000000001</v>
@@ -5272,16 +5257,16 @@
     </row>
     <row r="45" spans="4:21" ht="13.15">
       <c r="L45" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U45" s="11">
         <v>1</v>
@@ -5289,16 +5274,16 @@
     </row>
     <row r="46" spans="4:21" ht="13.15">
       <c r="L46" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U46" s="11">
         <v>0.98960000000000004</v>
@@ -5306,16 +5291,16 @@
     </row>
     <row r="47" spans="4:21" ht="13.15">
       <c r="L47" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="U47" s="11">
         <v>0.97809999999999997</v>
@@ -5323,16 +5308,16 @@
     </row>
     <row r="48" spans="4:21" ht="13.15">
       <c r="L48" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="U48" s="11">
         <v>0.96499999999999997</v>
@@ -5340,16 +5325,16 @@
     </row>
     <row r="49" spans="12:21" ht="13.15">
       <c r="L49" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="U49" s="11">
         <v>0.94910000000000005</v>
@@ -5357,16 +5342,16 @@
     </row>
     <row r="50" spans="12:21" ht="13.15">
       <c r="L50" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U50" s="11">
         <v>0.92969999999999997</v>
@@ -5374,13 +5359,13 @@
     </row>
     <row r="51" spans="12:21" ht="13.15">
       <c r="L51" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U51" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5388,13 +5373,13 @@
     </row>
     <row r="52" spans="12:21" ht="13.15">
       <c r="L52" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5402,13 +5387,13 @@
     </row>
     <row r="53" spans="12:21" ht="13.15">
       <c r="L53" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="U53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5416,13 +5401,13 @@
     </row>
     <row r="54" spans="12:21" ht="13.15">
       <c r="L54" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5430,10 +5415,10 @@
     </row>
     <row r="55" spans="12:21">
       <c r="Q55" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5441,10 +5426,10 @@
     </row>
     <row r="56" spans="12:21">
       <c r="Q56" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5452,10 +5437,10 @@
     </row>
     <row r="57" spans="12:21">
       <c r="Q57" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5463,10 +5448,10 @@
     </row>
     <row r="58" spans="12:21">
       <c r="Q58" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5474,10 +5459,10 @@
     </row>
     <row r="59" spans="12:21">
       <c r="Q59" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5485,10 +5470,10 @@
     </row>
     <row r="60" spans="12:21">
       <c r="Q60" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5496,10 +5481,10 @@
     </row>
     <row r="61" spans="12:21">
       <c r="Q61" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5507,10 +5492,10 @@
     </row>
     <row r="62" spans="12:21">
       <c r="Q62" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5518,10 +5503,10 @@
     </row>
     <row r="63" spans="12:21">
       <c r="Q63" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5529,10 +5514,10 @@
     </row>
     <row r="64" spans="12:21">
       <c r="Q64" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5540,10 +5525,10 @@
     </row>
     <row r="65" spans="17:21">
       <c r="Q65" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5551,10 +5536,10 @@
     </row>
     <row r="66" spans="17:21">
       <c r="Q66" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5562,10 +5547,10 @@
     </row>
     <row r="67" spans="17:21">
       <c r="Q67" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5573,10 +5558,10 @@
     </row>
     <row r="68" spans="17:21">
       <c r="Q68" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="U68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5584,10 +5569,10 @@
     </row>
     <row r="69" spans="17:21">
       <c r="Q69" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5595,10 +5580,10 @@
     </row>
     <row r="70" spans="17:21">
       <c r="Q70" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="U70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5606,10 +5591,10 @@
     </row>
     <row r="71" spans="17:21">
       <c r="Q71" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5617,10 +5602,10 @@
     </row>
     <row r="72" spans="17:21">
       <c r="Q72" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5628,10 +5613,10 @@
     </row>
     <row r="73" spans="17:21">
       <c r="Q73" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5639,10 +5624,10 @@
     </row>
     <row r="74" spans="17:21">
       <c r="Q74" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5650,10 +5635,10 @@
     </row>
     <row r="75" spans="17:21">
       <c r="Q75" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5661,10 +5646,10 @@
     </row>
     <row r="76" spans="17:21">
       <c r="Q76" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="U76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5672,10 +5657,10 @@
     </row>
     <row r="77" spans="17:21">
       <c r="Q77" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5683,10 +5668,10 @@
     </row>
     <row r="78" spans="17:21">
       <c r="Q78" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5694,10 +5679,10 @@
     </row>
     <row r="79" spans="17:21">
       <c r="Q79" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="U79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5705,10 +5690,10 @@
     </row>
     <row r="80" spans="17:21">
       <c r="Q80" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5716,10 +5701,10 @@
     </row>
     <row r="81" spans="17:21">
       <c r="Q81" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5727,10 +5712,10 @@
     </row>
     <row r="82" spans="17:21">
       <c r="Q82" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="U82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5738,10 +5723,10 @@
     </row>
     <row r="83" spans="17:21">
       <c r="Q83" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5749,10 +5734,10 @@
     </row>
     <row r="84" spans="17:21">
       <c r="Q84" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="U84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5760,10 +5745,10 @@
     </row>
     <row r="85" spans="17:21">
       <c r="Q85" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5771,10 +5756,10 @@
     </row>
     <row r="86" spans="17:21">
       <c r="Q86" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="U86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5782,10 +5767,10 @@
     </row>
     <row r="87" spans="17:21">
       <c r="Q87" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5793,10 +5778,10 @@
     </row>
     <row r="88" spans="17:21">
       <c r="Q88" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5804,10 +5789,10 @@
     </row>
     <row r="89" spans="17:21">
       <c r="Q89" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5815,10 +5800,10 @@
     </row>
     <row r="90" spans="17:21">
       <c r="Q90" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="U90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5826,10 +5811,10 @@
     </row>
     <row r="91" spans="17:21">
       <c r="Q91" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="U91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5837,10 +5822,10 @@
     </row>
     <row r="92" spans="17:21">
       <c r="Q92" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="U92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5848,10 +5833,10 @@
     </row>
     <row r="93" spans="17:21">
       <c r="Q93" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5888,7 +5873,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>57</v>
@@ -5896,10 +5881,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5907,10 +5892,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5918,10 +5903,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5929,10 +5914,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -5940,10 +5925,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5951,10 +5936,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5962,10 +5947,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5973,10 +5958,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5984,10 +5969,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5995,10 +5980,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6006,10 +5991,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6017,10 +6002,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6028,10 +6013,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6039,10 +6024,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6050,10 +6035,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6061,10 +6046,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6072,73 +6057,73 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DFA33-10D5-4728-8184-2336BDD6E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BBE3C-A7FD-4108-A8A9-97E926AB87E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BBE3C-A7FD-4108-A8A9-97E926AB87E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930636D-47F5-4A89-BCCB-5F5DA17B1AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930636D-47F5-4A89-BCCB-5F5DA17B1AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2786F73B-3C6B-4D2B-8AFE-4DCF1EDADD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2786F73B-3C6B-4D2B-8AFE-4DCF1EDADD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FFA65-7B80-4D4D-A817-5CB022C390C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FFA65-7B80-4D4D-A817-5CB022C390C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961E40E-C9E4-4FA2-BFB5-AEA55CB2F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961E40E-C9E4-4FA2-BFB5-AEA55CB2F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A6788-4F08-4A59-B92C-2E14E34C5D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A6788-4F08-4A59-B92C-2E14E34C5D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1021F6-D036-4CF4-BC69-BA000124354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1021F6-D036-4CF4-BC69-BA000124354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA3F62-A1C5-4A1E-A175-0704CBD7ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA3F62-A1C5-4A1E-A175-0704CBD7ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC5DF9-0BB4-4D65-8E82-D73A957C9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC5DF9-0BB4-4D65-8E82-D73A957C9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB040EB2-D50D-4B64-90E1-F64107AD314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <t>~BookRegions_Map</t>
   </si>
   <si>
-    <t>BookName</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>GBL</t>
   </si>
   <si>
     <t>Season</t>
@@ -3008,67 +3008,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
+    <row r="5" spans="2:8">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3082,9 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3674,31 +3672,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+    <row r="1" spans="2:12" ht="12.75">
+      <c r="B1" s="6"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" ht="12.75">
+      <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3706,163 +3702,163 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" ht="12.75">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:12">
+      <c r="D6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:12">
+      <c r="D7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="2:12">
+      <c r="D8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="2:12">
+      <c r="D9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="2:12">
+      <c r="B12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="2:12">
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>2222</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="2:12">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>8888</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="13"/>
+    <row r="16" spans="2:12" ht="12.75">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3871,9 +3867,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3882,9 +3878,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" ht="12.75">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3893,9 +3889,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25">
-      <c r="A19"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" ht="14.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -3908,9 +3904,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -3923,9 +3919,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.25">
-      <c r="A21"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="2:14" ht="14.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3938,9 +3934,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25">
-      <c r="A22"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -3953,9 +3949,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25">
-      <c r="A23"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="2:14" ht="14.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -3968,9 +3964,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3983,9 +3979,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25">
-      <c r="A25"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" ht="14.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -3998,9 +3994,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25">
-      <c r="A26"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -4013,9 +4009,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.25">
-      <c r="A27"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="2:14" ht="14.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4028,9 +4024,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.25">
-      <c r="A28"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="2:14" ht="14.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -4043,9 +4039,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25">
-      <c r="A29"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="2:14" ht="14.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -4058,9 +4054,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25">
-      <c r="A30"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -4073,9 +4069,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.25">
-      <c r="A31"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:14" ht="14.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4088,9 +4084,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25">
-      <c r="A32"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -4103,9 +4099,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25">
-      <c r="A33"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="2:14" ht="14.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -4118,9 +4114,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25">
-      <c r="A34"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14" ht="14.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -4133,9 +4129,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.25">
-      <c r="A35"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4148,9 +4144,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.25">
-      <c r="A36"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4163,9 +4159,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25">
-      <c r="A37"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4178,9 +4174,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25">
-      <c r="A38"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4193,9 +4189,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25">
-      <c r="A39"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -4208,9 +4204,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.25">
-      <c r="A40"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -4223,6 +4219,7 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
+      <c r="N40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4233,1612 +4230,1549 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="B2:V93"/>
+  <dimension ref="A2:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="11"/>
-    <col min="12" max="12" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="20" t="s">
+    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="13"/>
+      <c r="N2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="G4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.2201</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.1427</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.077</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="6">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.0358000000000001</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.9192</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.8468</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.7799</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.722</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.6836</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="6">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.15">
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.6446000000000001</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2139.4548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.15">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.15">
+      <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1.5770999999999999</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13.15">
+      <c r="B21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1.5488</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.15">
+      <c r="B22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1.5224</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="6">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.15">
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.5058</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.15">
+      <c r="B24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="11">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.15">
+      <c r="B25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.4518</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="11">
         <v>54</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="14.25">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="19" t="s">
+    </row>
+    <row r="26" spans="1:16" ht="13.15">
+      <c r="B26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.4198999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13.15">
+      <c r="B27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.15">
+      <c r="B28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.3727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13.15">
+      <c r="B29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.3369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.15">
+      <c r="B30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1.2967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.15">
+      <c r="B31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.2583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13.15">
+      <c r="B32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2253000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13.15">
+      <c r="B33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.2023999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13.15">
+      <c r="B34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.1931</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.15">
+      <c r="B35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.1793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="13.15">
+      <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="Q4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="13.15">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="G36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.1552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.15">
+      <c r="B37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.1334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13.15">
+      <c r="B38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.15">
+      <c r="B39" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.0934999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13.15">
+      <c r="B40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.0831</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13.15">
+      <c r="B41" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1.0719000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13.15">
+      <c r="B42" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.0519000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.15">
+      <c r="B43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.0274000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13.15">
+      <c r="B44" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1.0091000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13.15">
+      <c r="B45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="11">
         <v>1</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="13.15">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U6" s="11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="13.15">
-      <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="13.15">
-      <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="11" t="s">
+    </row>
+    <row r="46" spans="2:11" ht="13.15">
+      <c r="B46" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="J46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13.15">
+      <c r="B47" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13.15">
+      <c r="B48" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="13.15">
+      <c r="B49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="13.15">
+      <c r="B50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="13.15">
+      <c r="B51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="U8" s="11">
-        <v>2.2201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="13.15">
-      <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="K51" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="13.15">
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K52" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.15">
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.15">
+      <c r="B54" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="G55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="G56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="G57" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="G58" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K58" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="G59" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="G60" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="G61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="G62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K62" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="G63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="G64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K75" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11">
+      <c r="G76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11">
+      <c r="G77" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11">
+      <c r="G78" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11">
+      <c r="G79" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11">
+      <c r="G80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11">
+      <c r="G81" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K81" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K83" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11">
+      <c r="G85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K85" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
+      <c r="G87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U9" s="11">
-        <v>2.1427</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="D10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="11">
-        <v>2.077</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="D11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2.0358000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="13.15">
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1055.55</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" s="11">
-        <v>1.9870000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="13.15">
-      <c r="D13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="11">
-        <v>1.9192</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="13.15">
-      <c r="B14" s="13"/>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="11">
-        <v>1.8468</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="13.15">
-      <c r="B15" s="13"/>
-      <c r="D15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U15" s="11">
-        <v>1.7799</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="13.15">
-      <c r="B16" s="13"/>
-      <c r="D16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1.05555</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U16" s="11">
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" ht="13.15">
-      <c r="D17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4.1868000000000002E-2</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U17" s="11">
-        <v>1.6836</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" ht="13.15">
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="6">
-        <v>41.868000000000002</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="11">
-        <v>1.6446000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" ht="13.15">
-      <c r="D19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="11">
-        <v>1.6102000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" ht="13.15">
-      <c r="D20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" s="11">
-        <v>1.5770999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:21" ht="13.15">
-      <c r="D21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="11">
-        <v>1.5488</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" ht="13.15">
-      <c r="D22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="11">
-        <v>1.5224</v>
-      </c>
-    </row>
-    <row r="23" spans="4:21" ht="13.15">
-      <c r="D23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U23" s="11">
-        <v>1.5058</v>
-      </c>
-    </row>
-    <row r="24" spans="4:21" ht="13.15">
-      <c r="D24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U24" s="11">
-        <v>1.4844999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="4:21" ht="13.15">
-      <c r="D25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="6">
-        <v>37.68</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" s="11">
-        <v>1.4518</v>
-      </c>
-    </row>
-    <row r="26" spans="4:21" ht="13.15">
-      <c r="D26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2139.4548</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U26" s="11">
-        <v>1.4198999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:21" ht="13.15">
-      <c r="D27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2.78</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U27" s="11">
-        <v>1.3986000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="4:21" ht="13.15">
-      <c r="D28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U28" s="11">
-        <v>1.3727</v>
-      </c>
-    </row>
-    <row r="29" spans="4:21" ht="13.15">
-      <c r="D29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="11">
-        <v>1.3369</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21" ht="13.15">
-      <c r="D30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="6">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U30" s="11">
-        <v>1.2967</v>
-      </c>
-    </row>
-    <row r="31" spans="4:21" ht="13.15">
-      <c r="D31" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="6">
-        <v>120</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" s="11">
-        <v>1.2583</v>
-      </c>
-    </row>
-    <row r="32" spans="4:21" ht="13.15">
-      <c r="D32" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="11">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="K88" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11">
+      <c r="G89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U32" s="11">
-        <v>1.2253000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:21" ht="13.15">
-      <c r="D33" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="11">
-        <v>54</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="K89" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="U33" s="11">
-        <v>1.2023999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="4:21" ht="13.15">
-      <c r="L34" s="19" t="s">
+      <c r="K90" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11">
+      <c r="G91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U34" s="11">
-        <v>1.1931</v>
-      </c>
-    </row>
-    <row r="35" spans="4:21" ht="13.15">
-      <c r="L35" s="19" t="s">
+      <c r="K91" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U35" s="11">
-        <v>1.1793</v>
-      </c>
-    </row>
-    <row r="36" spans="4:21" ht="13.15">
-      <c r="L36" s="19" t="s">
+      <c r="K92" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U36" s="11">
-        <v>1.1552</v>
-      </c>
-    </row>
-    <row r="37" spans="4:21" ht="13.15">
-      <c r="L37" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="U37" s="11">
-        <v>1.1334</v>
-      </c>
-    </row>
-    <row r="38" spans="4:21" ht="13.15">
-      <c r="L38" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="U38" s="11">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="4:21" ht="13.15">
-      <c r="L39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U39" s="11">
-        <v>1.0934999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="4:21" ht="13.15">
-      <c r="L40" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U40" s="11">
-        <v>1.0831</v>
-      </c>
-    </row>
-    <row r="41" spans="4:21" ht="13.15">
-      <c r="L41" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U41" s="11">
-        <v>1.0719000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="4:21" ht="13.15">
-      <c r="L42" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U42" s="11">
-        <v>1.0519000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:21" ht="13.15">
-      <c r="L43" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U43" s="11">
-        <v>1.0274000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="4:21" ht="13.15">
-      <c r="L44" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U44" s="11">
-        <v>1.0091000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="4:21" ht="13.15">
-      <c r="L45" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="U45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:21" ht="13.15">
-      <c r="L46" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U46" s="11">
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="4:21" ht="13.15">
-      <c r="L47" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U47" s="11">
-        <v>0.97809999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="4:21" ht="13.15">
-      <c r="L48" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="U48" s="11">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="12:21" ht="13.15">
-      <c r="L49" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U49" s="11">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="12:21" ht="13.15">
-      <c r="L50" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U50" s="11">
-        <v>0.92969999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="12:21" ht="13.15">
-      <c r="L51" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="U51" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:21" ht="13.15">
-      <c r="L52" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U52" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="12:21" ht="13.15">
-      <c r="L53" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U53" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="12:21" ht="13.15">
-      <c r="L54" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U54" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="12:21">
-      <c r="Q55" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U55" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="12:21">
-      <c r="Q56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U56" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="12:21">
-      <c r="Q57" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U57" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="12:21">
-      <c r="Q58" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U58" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="12:21">
-      <c r="Q59" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U59" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="12:21">
-      <c r="Q60" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U60" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="12:21">
-      <c r="Q61" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U61" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="12:21">
-      <c r="Q62" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U62" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="12:21">
-      <c r="Q63" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U63" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="12:21">
-      <c r="Q64" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U64" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="17:21">
-      <c r="Q65" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U65" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="17:21">
-      <c r="Q66" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U66" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="17:21">
-      <c r="Q67" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T67" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U67" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="17:21">
-      <c r="Q68" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T68" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U68" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="17:21">
-      <c r="Q69" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U69" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="17:21">
-      <c r="Q70" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U70" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="17:21">
-      <c r="Q71" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T71" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U71" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="17:21">
-      <c r="Q72" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T72" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U72" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="17:21">
-      <c r="Q73" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U73" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="17:21">
-      <c r="Q74" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U74" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="17:21">
-      <c r="Q75" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U75" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="17:21">
-      <c r="Q76" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="U76" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="17:21">
-      <c r="Q77" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U77" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="17:21">
-      <c r="Q78" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U78" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="17:21">
-      <c r="Q79" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U79" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="17:21">
-      <c r="Q80" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="U80" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="17:21">
-      <c r="Q81" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="U81" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="17:21">
-      <c r="Q82" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T82" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U82" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="17:21">
-      <c r="Q83" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U83" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="17:21">
-      <c r="Q84" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U84" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="17:21">
-      <c r="Q85" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T85" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U85" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="17:21">
-      <c r="Q86" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T86" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U86" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="17:21">
-      <c r="Q87" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T87" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U87" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="17:21">
-      <c r="Q88" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T88" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="U88" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="17:21">
-      <c r="Q89" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T89" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U89" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="17:21">
-      <c r="Q90" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T90" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U90" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="17:21">
-      <c r="Q91" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T91" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="U91" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="17:21">
-      <c r="Q92" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T92" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U92" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="17:21">
-      <c r="Q93" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T93" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U93" s="11">
+      <c r="K93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5850,10 +5784,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
-  <dimension ref="A3:D33"/>
+  <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -6011,7 +5945,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
         <v>158</v>
       </c>
@@ -6022,7 +5956,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +5967,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
         <v>158</v>
       </c>
@@ -6044,7 +5978,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
         <v>173</v>
       </c>
@@ -6055,17 +5989,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
+    <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
+    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>177</v>
       </c>
@@ -6073,7 +6007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
         <v>179</v>
       </c>
@@ -6081,7 +6015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
         <v>181</v>
       </c>
@@ -6089,7 +6023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
         <v>182</v>
       </c>
@@ -6097,7 +6031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
         <v>183</v>
       </c>
@@ -6105,7 +6039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
         <v>184</v>
       </c>
@@ -6113,7 +6047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
         <v>185</v>
       </c>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB040EB2-D50D-4B64-90E1-F64107AD314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EFEEF-5FF1-40CD-8CF7-C95EB319A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>~BookRegions_Map</t>
   </si>
   <si>
+    <t>BookName</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>GBL</t>
   </si>
   <si>
     <t>Season</t>
@@ -3030,15 +3030,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -3055,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EFEEF-5FF1-40CD-8CF7-C95EB319A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40F4E4-3AC5-4D07-96B4-4AB3A18B2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40F4E4-3AC5-4D07-96B4-4AB3A18B2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A01FD-2466-4566-8985-CE9F60311D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A01FD-2466-4566-8985-CE9F60311D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FF064-C1D2-4676-AE82-E0FDC3608B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FF064-C1D2-4676-AE82-E0FDC3608B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0760D71-4730-4D83-BAE9-DFD5E9472228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0760D71-4730-4D83-BAE9-DFD5E9472228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45A05E-09AC-4508-BEB2-A836646E08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="213">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -661,25 +661,22 @@
     <t>ITA</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>ELC_Sol-ITA</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>solar generation</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
-    <t>Solar electricity produced in - Italy</t>
-  </si>
-  <si>
-    <t>ELC_Win-ITA</t>
-  </si>
-  <si>
-    <t>Wind electricity produced in - Italy</t>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>wind generation</t>
   </si>
 </sst>
 </file>
@@ -3080,7 +3077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3096,7 +3093,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3112,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3141,22 +3138,25 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3176,13 +3176,16 @@
         <v>209</v>
       </c>
       <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -3193,19 +3196,22 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
         <v>212</v>
       </c>
-      <c r="O6" t="s">
-        <v>209</v>
-      </c>
       <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
         <v>210</v>
       </c>
-      <c r="Q6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45A05E-09AC-4508-BEB2-A836646E08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4591F-BBCE-419F-8748-F5AE04DC5A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="213">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -3007,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4236,9 +4236,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P93"/>
+  <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
@@ -5301,14 +5303,20 @@
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>196</v>
+      <c r="G51" s="11" t="str">
+        <f>G46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <v>USD20</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K51" s="11">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="13.15">
@@ -5319,7 +5327,7 @@
         <v>196</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5333,7 +5341,7 @@
         <v>196</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5347,7 +5355,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5358,7 +5366,7 @@
         <v>196</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5369,7 +5377,7 @@
         <v>196</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5380,7 +5388,7 @@
         <v>196</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5391,7 +5399,7 @@
         <v>196</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5402,7 +5410,7 @@
         <v>196</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5413,7 +5421,7 @@
         <v>196</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5424,7 +5432,7 @@
         <v>196</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5435,7 +5443,7 @@
         <v>196</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5446,7 +5454,7 @@
         <v>196</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5457,7 +5465,7 @@
         <v>196</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5468,7 +5476,7 @@
         <v>196</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5479,7 +5487,7 @@
         <v>196</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5490,7 +5498,7 @@
         <v>196</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5501,7 +5509,7 @@
         <v>196</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="K68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5512,7 +5520,7 @@
         <v>196</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5523,7 +5531,7 @@
         <v>196</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5534,7 +5542,7 @@
         <v>196</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5545,7 +5553,7 @@
         <v>196</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5556,7 +5564,7 @@
         <v>196</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5567,7 +5575,7 @@
         <v>196</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5578,7 +5586,7 @@
         <v>196</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5589,7 +5597,7 @@
         <v>196</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5600,7 +5608,7 @@
         <v>196</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5611,7 +5619,7 @@
         <v>196</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5622,7 +5630,7 @@
         <v>196</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5633,7 +5641,7 @@
         <v>196</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5644,7 +5652,7 @@
         <v>196</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5655,7 +5663,7 @@
         <v>196</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5666,7 +5674,7 @@
         <v>196</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5677,7 +5685,7 @@
         <v>196</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5688,7 +5696,7 @@
         <v>196</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5699,7 +5707,7 @@
         <v>196</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5710,7 +5718,7 @@
         <v>196</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5721,7 +5729,7 @@
         <v>196</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5732,7 +5740,7 @@
         <v>196</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5743,7 +5751,7 @@
         <v>196</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5754,7 +5762,7 @@
         <v>196</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5765,7 +5773,7 @@
         <v>196</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5776,9 +5784,32 @@
         <v>196</v>
       </c>
       <c r="J93" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="11" t="str">
+        <f>J51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="K95" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4591F-BBCE-419F-8748-F5AE04DC5A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4959D56-ED47-4F24-9D4B-828FD2BFC9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4959D56-ED47-4F24-9D4B-828FD2BFC9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A900C-2FED-44B6-A786-82D2DF9950D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A900C-2FED-44B6-A786-82D2DF9950D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A15A7-5371-4731-A833-8E28EDF829C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A15A7-5371-4731-A833-8E28EDF829C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3775BBA-4D84-422C-ACC6-C7A36615B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3775BBA-4D84-422C-ACC6-C7A36615B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB0C3D-C347-4695-82EA-33B8ACA16FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB0C3D-C347-4695-82EA-33B8ACA16FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B6E82-71CA-4895-893E-53E368EF1CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B6E82-71CA-4895-893E-53E368EF1CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85442B-4972-4088-9BA2-A6E4127387CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>co2net</t>
+  </si>
+  <si>
+    <t>flo_mark</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3007,9 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3052,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3138,7 +3139,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3170,10 +3171,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3182,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3196,10 +3197,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3208,7 +3209,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3678,21 +3679,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="B1:N40"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -3808,49 +3815,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="14" t="s">
+    <row r="10" spans="2:12">
+      <c r="D10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="D14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2222</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -3858,22 +3865,22 @@
         <v>70</v>
       </c>
       <c r="F15" s="11">
+        <v>2222</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="11">
         <v>8888</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="12.75">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
@@ -3897,20 +3904,16 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+    <row r="19" spans="2:14" ht="12.75">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
@@ -4227,6 +4230,21 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
+    <row r="41" spans="2:14" ht="14.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4238,9 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
@@ -5823,9 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85442B-4972-4088-9BA2-A6E4127387CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B2DED-0C85-419A-AB92-9241AA7BB421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B2DED-0C85-419A-AB92-9241AA7BB421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D2316D-FB4E-429A-A7BF-2FE53CC74F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D2316D-FB4E-429A-A7BF-2FE53CC74F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDB815-72AA-4BE4-9F5D-C01FDF9DC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDB815-72AA-4BE4-9F5D-C01FDF9DC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF43048-A19A-41D7-BB29-D0B36F3B3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>flo_mark</t>
+  </si>
+  <si>
+    <t>hydrogen_allsect</t>
+  </si>
+  <si>
+    <t>Hydrogen demand - all sectors</t>
   </si>
   <si>
     <t>ITA</t>
@@ -703,7 +709,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1070,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="47">
@@ -1588,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2136,8 +2156,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,8 +2183,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
     <cellStyle name="20% - Accent1 3" xfId="5" xr:uid="{58CA3325-8B37-45C5-A177-73E6AEE43B64}"/>
     <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{3C5AA3C1-DAA0-472F-BECC-C64D10D55099}"/>
@@ -2375,6 +2399,7 @@
     <cellStyle name="Monétaire [0]_03tabmat" xfId="208" xr:uid="{F0DE3656-7A58-4CA3-A5EE-8576552EC653}"/>
     <cellStyle name="Monétaire_03tabmat" xfId="209" xr:uid="{E08D72EA-6991-424D-A48D-6801B506315C}"/>
     <cellStyle name="Neutral 2" xfId="211" xr:uid="{0BD2AEA9-BAC5-48AA-B1A7-8F95AAE6853E}"/>
+    <cellStyle name="Neutral 2 2" xfId="435" xr:uid="{773FC3D2-CB25-40C1-9022-B7616488FC25}"/>
     <cellStyle name="Neutral 3" xfId="210" xr:uid="{2435363D-5388-4D62-AE78-289118217843}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="212" xr:uid="{347F5622-C417-4F2E-B072-ECA7EBFFEE51}"/>
@@ -2474,6 +2499,7 @@
     <cellStyle name="Normal 3 5" xfId="306" xr:uid="{6443DAD9-14AD-440B-897A-2E9A24F0DF1D}"/>
     <cellStyle name="Normal 3 6" xfId="307" xr:uid="{E81CCC51-42D9-4E87-8496-29697C117EDE}"/>
     <cellStyle name="Normal 3 7" xfId="308" xr:uid="{5928F6C9-137F-431B-BF0D-7549BEA7EBFE}"/>
+    <cellStyle name="Normal 3 8" xfId="436" xr:uid="{552B16F0-55E2-4A8F-AA64-ACE13CE218AC}"/>
     <cellStyle name="Normal 30" xfId="309" xr:uid="{55B4AFDB-2E32-4F94-ABBB-FD32410C9D32}"/>
     <cellStyle name="Normal 31" xfId="310" xr:uid="{221EABEA-5450-4B12-B481-461C2BAE31B9}"/>
     <cellStyle name="Normal 32" xfId="311" xr:uid="{99908D0B-751D-4CA3-A3C2-C2D00549AE1A}"/>
@@ -3053,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3078,9 +3104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R22"/>
+  <dimension ref="B3:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3139,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3171,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3183,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3197,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3209,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3301,10 +3329,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -3315,10 +3343,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3329,10 +3357,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3340,41 +3368,47 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>198</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
-        <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
@@ -3382,15 +3416,23 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C332">
-    <sortCondition ref="C17:C332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
+    <sortCondition ref="C18:C333"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4254,18 +4296,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P95"/>
+  <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.3984375" style="11"/>
+    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="11"/>
+    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>73</v>
@@ -4273,13 +4328,13 @@
       <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>75</v>
@@ -4288,62 +4343,56 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>188</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.15">
+    <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="11">
+      <c r="I4" s="11">
         <v>0.05</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.15">
+    <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>77</v>
@@ -4351,1481 +4400,1536 @@
       <c r="E5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.15">
+    <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="11">
+      <c r="I6" s="11">
         <v>2025</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.15">
+    <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="11">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.15">
+    <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="11">
+      <c r="I8" s="11">
         <v>2.2201</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.15">
+    <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="11">
+      <c r="I9" s="11">
         <v>2.1427</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.15">
+    <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="11">
+      <c r="I10" s="11">
         <v>2.077</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.15">
+    <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="11">
+      <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.15">
+    <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="11">
+      <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.15">
+    <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="11">
+      <c r="I13" s="11">
         <v>1.9192</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.15">
+    <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="11">
+      <c r="I14" s="11">
         <v>1.8468</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.15">
+    <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="11">
+      <c r="I15" s="11">
         <v>1.7799</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.15">
+    <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="11">
+      <c r="I16" s="11">
         <v>1.722</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="6">
+      <c r="N16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.15">
+    <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="11">
+      <c r="I17" s="11">
         <v>1.6836</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="6">
+      <c r="N17" s="6">
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.15">
+    <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
         <v>102</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="11">
+      <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="6">
+      <c r="N18" s="6">
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.15">
+    <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
         <v>104</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="11">
+      <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="6">
+      <c r="N19" s="6">
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.15">
+    <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="F20" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="11">
+      <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="6">
+      <c r="N20" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.15">
+    <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="11">
+      <c r="I21" s="11">
         <v>1.5488</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="6">
+      <c r="N21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.15">
+    <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
         <v>111</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="11">
+      <c r="I22" s="11">
         <v>1.5224</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="6">
+      <c r="N22" s="6">
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.15">
+    <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="11">
+      <c r="I23" s="11">
         <v>1.5058</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="6">
+      <c r="N23" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.15">
+    <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="F24" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="11">
+      <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="11">
+      <c r="N24" s="11">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.15">
+    <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="11">
+      <c r="I25" s="11">
         <v>1.4518</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="11">
+      <c r="N25" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.15">
+    <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="F26" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="11">
+      <c r="I26" s="11">
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.15">
+    <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="11">
+      <c r="I27" s="11">
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.15">
+    <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
         <v>126</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11">
+      <c r="I28" s="11">
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.15">
+    <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
         <v>128</v>
       </c>
+      <c r="F29" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="11">
+      <c r="I29" s="11">
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.15">
+    <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
         <v>129</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="11">
+      <c r="I30" s="11">
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.15">
+    <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="11">
+      <c r="I31" s="11">
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.15">
+    <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
         <v>133</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="11">
+      <c r="I32" s="11">
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.15">
+    <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
         <v>135</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="11">
+      <c r="I33" s="11">
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="13.15">
+    <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
         <v>137</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="11">
+      <c r="I34" s="11">
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="13.15">
+    <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="11">
+      <c r="I35" s="11">
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="13.15">
+    <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="11">
+      <c r="I36" s="11">
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="13.15">
+    <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="11">
+      <c r="I37" s="11">
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="13.15">
+    <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
         <v>141</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="11">
+      <c r="I38" s="11">
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="13.15">
+    <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
         <v>142</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="11">
+      <c r="I39" s="11">
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="13.15">
+    <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
         <v>143</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="11">
+      <c r="I40" s="11">
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="13.15">
+    <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="F41" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="11">
+      <c r="I41" s="11">
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.15">
+    <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="11">
+      <c r="I42" s="11">
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.15">
+    <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
         <v>146</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="11">
+      <c r="I43" s="11">
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.15">
+    <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
         <v>147</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="11">
+      <c r="I44" s="11">
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="13.15">
+    <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="11">
+      <c r="I45" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="13.15">
+    <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K46" s="11">
+      <c r="I46" s="11">
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="13.15">
+    <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="F47" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="11">
+      <c r="I47" s="11">
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="13.15">
+    <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
         <v>151</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="11">
+      <c r="I48" s="11">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="13.15">
+    <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
         <v>152</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="11">
+      <c r="I49" s="11">
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.15">
+    <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
         <v>153</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="11">
+      <c r="I50" s="11">
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.15">
+    <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
+      <c r="F51" s="11" t="str">
+        <f>F46</f>
+        <v>G_CUREX</v>
+      </c>
       <c r="G51" s="11" t="str">
-        <f>G46</f>
-        <v>G_CUREX</v>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <f t="shared" ref="G51:I51" si="0">G46</f>
         <v>USD20</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="11">
+      <c r="I51" s="11">
         <f t="shared" si="0"/>
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.15">
+    <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="11">
+      <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.15">
+    <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K53" s="11">
+      <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.15">
+    <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="11">
+      <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="G55" s="11" t="s">
+    <row r="55" spans="2:9">
+      <c r="F55" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="11">
+      <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="G56" s="11" t="s">
+    <row r="56" spans="2:9">
+      <c r="F56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K56" s="11">
+      <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="G57" s="11" t="s">
+    <row r="57" spans="2:9">
+      <c r="F57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="11">
+      <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="11" t="s">
+    <row r="58" spans="2:9">
+      <c r="F58" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K58" s="11">
+      <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="G59" s="11" t="s">
+    <row r="59" spans="2:9">
+      <c r="F59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="11">
+      <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="G60" s="11" t="s">
+    <row r="60" spans="2:9">
+      <c r="F60" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="11">
+      <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="G61" s="11" t="s">
+    <row r="61" spans="2:9">
+      <c r="F61" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K61" s="11">
+      <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="11" t="s">
+    <row r="62" spans="2:9">
+      <c r="F62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K62" s="11">
+      <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="11" t="s">
+    <row r="63" spans="2:9">
+      <c r="F63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="11">
+      <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="11" t="s">
+    <row r="64" spans="2:9">
+      <c r="F64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K64" s="11">
+      <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="11" t="s">
+    <row r="65" spans="6:9">
+      <c r="F65" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K65" s="11">
+      <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="11" t="s">
+    <row r="66" spans="6:9">
+      <c r="F66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K66" s="11">
+      <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="11" t="s">
+    <row r="67" spans="6:9">
+      <c r="F67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="11">
+      <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="11" t="s">
+    <row r="68" spans="6:9">
+      <c r="F68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K68" s="11">
+      <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="11" t="s">
+    <row r="69" spans="6:9">
+      <c r="F69" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K69" s="11">
+      <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="11" t="s">
+    <row r="70" spans="6:9">
+      <c r="F70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="11">
+      <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="11" t="s">
+    <row r="71" spans="6:9">
+      <c r="F71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="11">
+      <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="11" t="s">
+    <row r="72" spans="6:9">
+      <c r="F72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K72" s="11">
+      <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="11" t="s">
+    <row r="73" spans="6:9">
+      <c r="F73" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K73" s="11">
+      <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="11" t="s">
+    <row r="74" spans="6:9">
+      <c r="F74" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K74" s="11">
+      <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="11" t="s">
+    <row r="75" spans="6:9">
+      <c r="F75" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="11">
+      <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="11" t="s">
+    <row r="76" spans="6:9">
+      <c r="F76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K76" s="11">
+      <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="11" t="s">
+    <row r="77" spans="6:9">
+      <c r="F77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K77" s="11">
+      <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="11" t="s">
+    <row r="78" spans="6:9">
+      <c r="F78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K78" s="11">
+      <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="11" t="s">
+    <row r="79" spans="6:9">
+      <c r="F79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K79" s="11">
+      <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="11" t="s">
+    <row r="80" spans="6:9">
+      <c r="F80" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K80" s="11">
+      <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="11" t="s">
+    <row r="81" spans="6:9">
+      <c r="F81" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K81" s="11">
+      <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="11" t="s">
+    <row r="82" spans="6:9">
+      <c r="F82" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K82" s="11">
+      <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="11" t="s">
+    <row r="83" spans="6:9">
+      <c r="F83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K83" s="11">
+      <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="11" t="s">
+    <row r="84" spans="6:9">
+      <c r="F84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K84" s="11">
+      <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="11" t="s">
+    <row r="85" spans="6:9">
+      <c r="F85" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K85" s="11">
+      <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="11" t="s">
+    <row r="86" spans="6:9">
+      <c r="F86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K86" s="11">
+      <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="11" t="s">
+    <row r="87" spans="6:9">
+      <c r="F87" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K87" s="11">
+      <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="11" t="s">
+    <row r="88" spans="6:9">
+      <c r="F88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="11">
+      <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="11" t="s">
+    <row r="89" spans="6:9">
+      <c r="F89" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K89" s="11">
+      <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="11" t="s">
+    <row r="90" spans="6:9">
+      <c r="F90" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K90" s="11">
+      <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="11" t="s">
+    <row r="91" spans="6:9">
+      <c r="F91" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K91" s="11">
+      <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="11" t="s">
+    <row r="92" spans="6:9">
+      <c r="F92" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K92" s="11">
+      <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="11" t="s">
+    <row r="93" spans="6:9">
+      <c r="F93" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K93" s="11">
+      <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="94" spans="7:11">
-      <c r="G94" s="11" t="s">
+    <row r="94" spans="6:9">
+      <c r="F94" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K94" s="11">
+      <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="11" t="s">
+    <row r="95" spans="6:9">
+      <c r="F95" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J95" s="11" t="str">
-        <f>J51</f>
+      <c r="H95" s="11" t="str">
+        <f>H51</f>
         <v>USD21_alt</v>
       </c>
-      <c r="K95" s="11">
+      <c r="I95" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+      <c r="E99" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+      <c r="E100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" ht="14.25">
+      <c r="E101"/>
+      <c r="F101" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="22">
+        <f>1.10926234054354*I40</f>
+        <v>1.201442041042708</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" ht="14.25">
+      <c r="E102"/>
+      <c r="F102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="22">
+        <f>I84</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5839,7 +5943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF43048-A19A-41D7-BB29-D0B36F3B3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB0695D-1F69-4957-891F-74A1587E8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB0695D-1F69-4957-891F-74A1587E8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D01CE7-E558-4809-8617-E51A93362F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D01CE7-E558-4809-8617-E51A93362F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243D481-C4AA-4678-A3C2-A77219BEFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243D481-C4AA-4678-A3C2-A77219BEFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CC0CB-675C-4D3A-BA38-C6934F242633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CC0CB-675C-4D3A-BA38-C6934F242633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679A48F-B863-456E-AB49-ED442BB16D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679A48F-B863-456E-AB49-ED442BB16D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BC413F-4BB7-41EC-9E20-9DBC55E805D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BC413F-4BB7-41EC-9E20-9DBC55E805D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEABD5B-E081-4046-ACCA-19C35E50065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEABD5B-E081-4046-ACCA-19C35E50065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3EAE9A-05CB-433C-A8D0-937803F6A841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="218">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -676,16 +676,22 @@
     <t>elc_spv-ITA</t>
   </si>
   <si>
-    <t>solar generation</t>
+    <t>solar electricity generation</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation</t>
+  </si>
+  <si>
     <t>elc_won-ITA</t>
   </si>
   <si>
-    <t>wind generation</t>
+    <t>onshore wind electricity generation</t>
   </si>
 </sst>
 </file>
@@ -3247,6 +3253,24 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>216</v>
+      </c>
+      <c r="O7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
       <c r="C8" t="s">

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3EAE9A-05CB-433C-A8D0-937803F6A841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3033F-B60E-4C7B-A651-F2982F6168C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3033F-B60E-4C7B-A651-F2982F6168C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E8E08-2410-4519-AA9E-6B0A2ACFC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="219">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -121,9 +121,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
@@ -665,6 +662,12 @@
   </si>
   <si>
     <t>Hydrogen demand - all sectors</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3085,21 +3088,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3110,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R23"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3173,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3205,19 +3208,19 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3231,19 +3234,19 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
         <v>214</v>
-      </c>
-      <c r="O6" t="s">
-        <v>215</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3257,19 +3260,19 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3306,7 +3309,7 @@
     </row>
     <row r="12" spans="2:18">
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="14" spans="2:18">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -3330,47 +3333,41 @@
     </row>
     <row r="15" spans="2:18">
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3378,13 +3375,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3392,13 +3389,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3406,57 +3403,71 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>198</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>199</v>
-      </c>
-      <c r="E21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="C23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
-    <sortCondition ref="C18:C333"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C334">
+    <sortCondition ref="C19:C334"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3481,7 +3492,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3491,28 +3502,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3532,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3540,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3560,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3580,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3600,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3620,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3640,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3656,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3668,7 +3679,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3676,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3684,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3692,37 +3703,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3796,7 +3807,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3804,42 +3815,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3850,7 +3861,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3861,7 +3872,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3872,7 +3883,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3883,7 +3894,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3894,7 +3905,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3902,50 +3913,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4347,13 +4358,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4361,56 +4372,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4419,25 +4430,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4446,19 +4457,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4467,19 +4478,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4488,25 +4499,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4515,25 +4526,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4542,25 +4553,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4569,25 +4580,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4596,25 +4607,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4623,25 +4634,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4650,25 +4661,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4677,25 +4688,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4704,25 +4715,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4731,25 +4742,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4757,25 +4768,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4783,25 +4794,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4809,25 +4820,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4835,25 +4846,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4861,25 +4872,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4887,25 +4898,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4913,25 +4924,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -4939,25 +4950,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -4965,16 +4976,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -4982,16 +4993,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -4999,16 +5010,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -5016,16 +5027,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5033,16 +5044,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5050,16 +5061,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5067,16 +5078,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5084,16 +5095,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5101,16 +5112,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5118,16 +5129,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5135,16 +5146,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5152,16 +5163,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5169,16 +5180,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5186,16 +5197,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5203,16 +5214,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5220,16 +5231,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5237,16 +5248,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5254,16 +5265,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5271,16 +5282,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5288,16 +5299,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5305,16 +5316,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5322,16 +5333,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5339,16 +5350,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5356,16 +5367,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5373,16 +5384,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5390,7 +5401,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5401,7 +5412,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5410,13 +5421,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5424,13 +5435,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5438,13 +5449,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5452,10 +5463,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5463,10 +5474,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5474,10 +5485,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5485,10 +5496,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5496,10 +5507,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5507,10 +5518,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5518,10 +5529,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5529,10 +5540,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5540,10 +5551,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5551,10 +5562,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5562,10 +5573,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5573,10 +5584,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5584,10 +5595,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5595,10 +5606,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5606,10 +5617,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5617,10 +5628,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5628,10 +5639,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5639,10 +5650,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5650,10 +5661,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5661,10 +5672,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5672,10 +5683,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5683,10 +5694,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5694,10 +5705,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5705,10 +5716,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5716,10 +5727,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5727,10 +5738,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5738,10 +5749,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5749,10 +5760,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5760,10 +5771,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5771,10 +5782,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5782,10 +5793,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5793,10 +5804,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5804,10 +5815,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5815,10 +5826,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5826,10 +5837,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5837,10 +5848,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5848,10 +5859,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5859,10 +5870,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5870,10 +5881,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5881,10 +5892,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5892,7 +5903,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5904,39 +5915,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -5946,11 +5957,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -5978,26 +5989,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -6005,10 +6016,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -6016,10 +6027,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6027,10 +6038,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6038,10 +6049,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6049,10 +6060,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6060,10 +6071,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6071,10 +6082,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6082,10 +6093,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6093,10 +6104,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6104,10 +6115,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6115,10 +6126,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6126,10 +6137,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6137,10 +6148,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6148,10 +6159,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6159,10 +6170,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6170,73 +6181,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E8E08-2410-4519-AA9E-6B0A2ACFC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA568D-8634-4EE4-8D16-2C5427CB0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA568D-8634-4EE4-8D16-2C5427CB0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953BC502-F187-4234-8420-0CA35054906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953BC502-F187-4234-8420-0CA35054906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD91FA-D7B7-48C8-A056-7FA9EB3E3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD91FA-D7B7-48C8-A056-7FA9EB3E3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4F0B5-20B1-4C0E-BF4C-15A4F38F75B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4F0B5-20B1-4C0E-BF4C-15A4F38F75B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659B8FA8-3998-4734-97E9-ABA716754ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659B8FA8-3998-4734-97E9-ABA716754ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE079C-E75B-4BD7-B773-6371EBA589D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE079C-E75B-4BD7-B773-6371EBA589D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB61AB-3AEF-47F6-A238-A48CE34414BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB61AB-3AEF-47F6-A238-A48CE34414BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95559AB-BB5D-4187-94EA-9DF46441E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95559AB-BB5D-4187-94EA-9DF46441E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C062E-BCF2-4AD0-80EC-D77831D15B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C062E-BCF2-4AD0-80EC-D77831D15B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F44D3-7004-41B4-BEC7-C1F4AAF35234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F44D3-7004-41B4-BEC7-C1F4AAF35234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD8D1F-9A03-4430-AD52-404FD0072E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD8D1F-9A03-4430-AD52-404FD0072E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689D7DC3-947A-455B-B03F-F7519AA7D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689D7DC3-947A-455B-B03F-F7519AA7D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975A16C-4517-470D-AF66-36DAD5735CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975A16C-4517-470D-AF66-36DAD5735CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85488F9E-B326-415E-9F05-30B2DAA806A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85488F9E-B326-415E-9F05-30B2DAA806A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB5C75-EDF1-4917-8620-6226419EDC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB5C75-EDF1-4917-8620-6226419EDC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66685F-5D6E-47D0-B705-ED1D737E6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66685F-5D6E-47D0-B705-ED1D737E6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787FD61-9409-4BE4-8C8D-756D0E90B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787FD61-9409-4BE4-8C8D-756D0E90B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79358861-A3B5-4D1B-AF43-6ED39D4760BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79358861-A3B5-4D1B-AF43-6ED39D4760BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3207B2-758A-41B0-B436-EDDC3BADE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3207B2-758A-41B0-B436-EDDC3BADE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA90C3-22CD-4BA4-B082-DBE782874C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA90C3-22CD-4BA4-B082-DBE782874C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2466-F22A-488E-A95F-DB15C63C0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -668,6 +668,15 @@
   </si>
   <si>
     <t>windoff</t>
+  </si>
+  <si>
+    <t>NRG, GAS</t>
+  </si>
+  <si>
+    <t>wind onshore</t>
+  </si>
+  <si>
+    <t>wind offshore</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3088,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -3116,7 +3125,7 @@
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3176,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3208,10 +3217,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -3220,10 +3229,13 @@
         <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:18">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -3234,10 +3246,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
@@ -3246,10 +3258,13 @@
         <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3260,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -3272,10 +3287,13 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3284,6 +3302,9 @@
       </c>
     </row>
     <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3292,6 +3313,9 @@
       </c>
     </row>
     <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3300,6 +3324,9 @@
       </c>
     </row>
     <row r="11" spans="2:18">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3308,6 +3335,9 @@
       </c>
     </row>
     <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -3316,6 +3346,9 @@
       </c>
     </row>
     <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3324,22 +3357,37 @@
       </c>
     </row>
     <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" t="s">
         <v>208</v>
       </c>
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:18">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
         <v>209</v>
       </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -3450,6 +3498,9 @@
       </c>
     </row>
     <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>196</v>
+      </c>
       <c r="C23" t="s">
         <v>203</v>
       </c>
@@ -3458,6 +3509,9 @@
       </c>
     </row>
     <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
       <c r="C24" t="s">
         <v>204</v>
       </c>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2466-F22A-488E-A95F-DB15C63C0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604DA09-4D56-4AD8-A385-CB360356C005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="223">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>wind offshore</t>
+  </si>
+  <si>
+    <t>Elec</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3097,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -3125,7 +3128,7 @@
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3185,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3217,10 +3220,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -3229,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3246,10 +3249,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
@@ -3258,7 +3261,7 @@
         <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3275,10 +3278,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -3287,7 +3290,7 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3389,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604DA09-4D56-4AD8-A385-CB360356C005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF475B-7828-4A4B-818D-5C98EED9A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3127,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4390,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -4472,7 +4472,7 @@
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>87</v>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>90</v>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF475B-7828-4A4B-818D-5C98EED9A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24FCF1-B3CE-45AD-9C03-D743FCE5B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>wind offshore</t>
-  </si>
-  <si>
-    <t>Elec</t>
   </si>
   <si>
     <t>ITA</t>
@@ -3100,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -3127,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3188,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3220,10 +3217,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" t="s">
         <v>216</v>
-      </c>
-      <c r="O5" t="s">
-        <v>217</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -3232,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3249,10 +3246,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" t="s">
         <v>219</v>
-      </c>
-      <c r="O6" t="s">
-        <v>220</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
@@ -3261,7 +3258,7 @@
         <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3278,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" t="s">
         <v>221</v>
-      </c>
-      <c r="O7" t="s">
-        <v>222</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -3290,7 +3287,7 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3392,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -4390,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -4472,7 +4469,7 @@
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>87</v>
@@ -4499,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>90</v>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24FCF1-B3CE-45AD-9C03-D743FCE5B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A965ED1-2492-4E3E-BA38-99FEFE9DBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A965ED1-2492-4E3E-BA38-99FEFE9DBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7248538-80E9-481C-B765-397623353C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7248538-80E9-481C-B765-397623353C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3B125-B580-4421-90ED-58840D122214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3B125-B580-4421-90ED-58840D122214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81476550-080D-4357-9DFD-0DD89161B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="221">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -100,12 +100,6 @@
     <t>bioenergy</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -670,9 +661,6 @@
     <t>windoff</t>
   </si>
   <si>
-    <t>NRG, GAS</t>
-  </si>
-  <si>
     <t>wind onshore</t>
   </si>
   <si>
@@ -704,6 +692,15 @@
   </si>
   <si>
     <t>onshore wind electricity generation</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>OIL</t>
   </si>
 </sst>
 </file>
@@ -3097,21 +3094,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3122,7 @@
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3185,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3217,19 +3214,19 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3237,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3246,27 +3243,27 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -3275,19 +3272,19 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3295,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -3306,7 +3303,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -3317,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -3328,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -3339,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -3350,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -3361,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -3375,10 +3372,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -3389,33 +3386,33 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3423,13 +3420,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3437,13 +3434,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3451,13 +3448,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -3468,55 +3465,55 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
         <v>196</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
         <v>196</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
         <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3543,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3556,28 +3553,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3597,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3605,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3625,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3645,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3665,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3685,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3705,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3721,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3733,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3741,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3749,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3757,37 +3754,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3861,7 +3858,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3869,42 +3866,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3926,7 +3923,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3967,50 +3964,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4412,13 +4409,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4426,56 +4423,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4484,25 +4481,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4511,19 +4508,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4532,19 +4529,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4553,25 +4550,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4580,25 +4577,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4607,25 +4604,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4634,25 +4631,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4661,25 +4658,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4688,25 +4685,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4715,25 +4712,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4742,25 +4739,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4769,25 +4766,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4796,25 +4793,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4822,25 +4819,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4848,25 +4845,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4874,25 +4871,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4900,25 +4897,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4926,25 +4923,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4952,25 +4949,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4978,25 +4975,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -5004,25 +5001,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -5030,16 +5027,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -5047,16 +5044,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -5064,16 +5061,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -5081,16 +5078,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="H29" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5098,16 +5095,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5115,16 +5112,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5132,16 +5129,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5149,16 +5146,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5166,16 +5163,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5183,16 +5180,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5200,16 +5197,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5217,16 +5214,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5234,16 +5231,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5251,16 +5248,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5268,16 +5265,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5285,16 +5282,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5302,16 +5299,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5319,16 +5316,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5336,16 +5333,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5353,16 +5350,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5370,16 +5367,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5387,16 +5384,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5404,16 +5401,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5421,16 +5418,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5438,16 +5435,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5466,7 +5463,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5475,13 +5472,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5489,13 +5486,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5503,13 +5500,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5517,10 +5514,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5528,10 +5525,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5539,10 +5536,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5550,10 +5547,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5561,10 +5558,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5572,10 +5569,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5583,10 +5580,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5605,10 +5602,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5616,10 +5613,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5627,10 +5624,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5638,10 +5635,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5649,10 +5646,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5660,10 +5657,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5671,10 +5668,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5682,10 +5679,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5715,10 +5712,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5726,10 +5723,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5759,10 +5756,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5770,10 +5767,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5792,10 +5789,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5803,10 +5800,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5825,10 +5822,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5836,10 +5833,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5847,10 +5844,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5858,10 +5855,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5869,10 +5866,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5880,10 +5877,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5891,10 +5888,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5902,10 +5899,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5913,10 +5910,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5924,10 +5921,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5935,10 +5932,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5946,10 +5943,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5957,7 +5954,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5969,39 +5966,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -6011,11 +6008,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -6043,26 +6040,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -6070,10 +6067,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -6081,10 +6078,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6092,10 +6089,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6114,10 +6111,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6125,10 +6122,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6136,10 +6133,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6147,10 +6144,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6180,10 +6177,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6191,10 +6188,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6202,10 +6199,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6213,10 +6210,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6224,10 +6221,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6235,73 +6232,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81476550-080D-4357-9DFD-0DD89161B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4C33F-0E35-497B-94AA-46B3868667D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,6 +667,15 @@
     <t>wind offshore</t>
   </si>
   <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
     <t>ITA</t>
   </si>
   <si>
@@ -692,15 +701,6 @@
   </si>
   <si>
     <t>onshore wind electricity generation</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
-    <t>OIL</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -3182,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3214,10 +3214,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
         <v>25</v>
@@ -3226,7 +3226,7 @@
         <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3234,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3243,10 +3243,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
         <v>25</v>
@@ -3255,7 +3255,7 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3263,7 +3263,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -3272,10 +3272,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P7" t="s">
         <v>25</v>
@@ -3284,7 +3284,7 @@
         <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3336,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4C33F-0E35-497B-94AA-46B3868667D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990339A-55DD-40A5-83CE-64097658B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="213">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -52,6 +52,9 @@
     <t>~TimeSlices</t>
   </si>
   <si>
+    <t>GBL</t>
+  </si>
+  <si>
     <t>Season</t>
   </si>
   <si>
@@ -674,33 +677,6 @@
   </si>
   <si>
     <t>OIL</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>solar electricity generation</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation</t>
-  </si>
-  <si>
-    <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>onshore wind electricity generation</t>
   </si>
 </sst>
 </file>
@@ -3080,35 +3056,35 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R24"/>
+  <dimension ref="B3:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -3137,9 +3113,9 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3149,371 +3125,304 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="M3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" t="s">
-        <v>215</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
         <v>209</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O6" t="s">
-        <v>218</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3452,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3553,28 +3462,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3594,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3602,7 +3511,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3622,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3642,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3662,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3682,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3702,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3718,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3730,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3738,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3746,7 +3655,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3754,37 +3663,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3858,7 +3767,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3866,42 +3775,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3912,7 +3821,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3923,7 +3832,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3934,7 +3843,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3945,7 +3854,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3956,7 +3865,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3964,50 +3873,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4409,13 +4318,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4423,56 +4332,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4481,25 +4390,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4508,19 +4417,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4529,19 +4438,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4550,25 +4459,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4577,25 +4486,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4604,25 +4513,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4631,25 +4540,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4658,25 +4567,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4685,25 +4594,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4712,25 +4621,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4739,25 +4648,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4766,25 +4675,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4793,25 +4702,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4819,25 +4728,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4845,25 +4754,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4871,25 +4780,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4897,25 +4806,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4923,25 +4832,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4949,25 +4858,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4975,25 +4884,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -5001,25 +4910,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -5027,16 +4936,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -5044,16 +4953,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -5061,16 +4970,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -5078,16 +4987,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5095,16 +5004,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5112,16 +5021,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5129,16 +5038,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5146,16 +5055,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5163,16 +5072,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5180,16 +5089,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5197,16 +5106,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5214,16 +5123,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5231,16 +5140,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5248,16 +5157,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5265,16 +5174,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5282,16 +5191,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5299,16 +5208,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5316,16 +5225,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5333,16 +5242,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5350,16 +5259,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5367,16 +5276,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5384,16 +5293,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5401,16 +5310,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5418,16 +5327,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5435,16 +5344,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5452,7 +5361,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5463,7 +5372,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5472,13 +5381,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5486,13 +5395,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5500,13 +5409,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5514,10 +5423,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5525,10 +5434,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5536,10 +5445,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5547,10 +5456,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5558,10 +5467,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5569,10 +5478,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5580,10 +5489,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5591,10 +5500,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5602,10 +5511,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5613,10 +5522,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5624,10 +5533,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5635,10 +5544,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5646,10 +5555,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5657,10 +5566,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5668,10 +5577,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5679,10 +5588,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5690,10 +5599,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5701,10 +5610,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5712,10 +5621,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5723,10 +5632,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5734,10 +5643,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5745,10 +5654,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5756,10 +5665,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5767,10 +5676,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5778,10 +5687,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5789,10 +5698,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5800,10 +5709,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5811,10 +5720,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5822,10 +5731,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5833,10 +5742,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5844,10 +5753,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5855,10 +5764,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5866,10 +5775,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5877,10 +5786,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5888,10 +5797,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5899,10 +5808,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5910,10 +5819,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5921,10 +5830,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5932,10 +5841,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5943,10 +5852,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5954,7 +5863,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5966,39 +5875,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -6008,11 +5917,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -6040,26 +5949,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -6067,10 +5976,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -6078,10 +5987,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6089,10 +5998,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6100,10 +6009,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6111,10 +6020,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6122,10 +6031,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6133,10 +6042,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6144,10 +6053,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6155,10 +6064,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6166,10 +6075,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6177,10 +6086,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6188,10 +6097,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6199,10 +6108,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6210,10 +6119,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6221,10 +6130,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6232,73 +6141,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990339A-55DD-40A5-83CE-64097658B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289EAB5-F71C-4ACF-B305-1DEDB5499286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="221">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -52,9 +52,6 @@
     <t>~TimeSlices</t>
   </si>
   <si>
-    <t>GBL</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -677,6 +674,33 @@
   </si>
   <si>
     <t>OIL</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>solar electricity generation</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>onshore wind electricity generation</t>
   </si>
 </sst>
 </file>
@@ -3056,35 +3080,35 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q24"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -3113,9 +3137,9 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3125,304 +3149,371 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="M3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" t="s">
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
         <v>204</v>
       </c>
-      <c r="D17" t="s">
-        <v>205</v>
-      </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
         <v>194</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>195</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>196</v>
-      </c>
-      <c r="E22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3543,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3462,28 +3553,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3503,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3511,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3531,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3551,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3571,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3591,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3611,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3627,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3639,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3647,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3655,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3663,37 +3754,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3767,7 +3858,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3775,42 +3866,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3821,7 +3912,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3832,7 +3923,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3843,7 +3934,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3854,7 +3945,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3865,7 +3956,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3873,50 +3964,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4318,13 +4409,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4332,56 +4423,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4390,25 +4481,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4417,19 +4508,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4438,19 +4529,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4459,25 +4550,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4486,25 +4577,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4513,25 +4604,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4540,25 +4631,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4567,25 +4658,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4594,25 +4685,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4621,25 +4712,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4648,25 +4739,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4675,25 +4766,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4702,25 +4793,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4728,25 +4819,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4754,25 +4845,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4780,25 +4871,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4806,25 +4897,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4832,25 +4923,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4858,25 +4949,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4884,25 +4975,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -4910,25 +5001,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -4936,16 +5027,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -4953,16 +5044,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -4970,16 +5061,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -4987,16 +5078,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5004,16 +5095,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5021,16 +5112,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5038,16 +5129,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5055,16 +5146,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5072,16 +5163,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5089,16 +5180,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5106,16 +5197,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5123,16 +5214,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5140,16 +5231,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5157,16 +5248,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5174,16 +5265,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5191,16 +5282,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5208,16 +5299,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5225,16 +5316,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5242,16 +5333,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5259,16 +5350,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5276,16 +5367,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5293,16 +5384,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5310,16 +5401,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5327,16 +5418,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5344,16 +5435,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5361,7 +5452,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5372,7 +5463,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5381,13 +5472,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5395,13 +5486,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5409,13 +5500,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5423,10 +5514,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5434,10 +5525,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5445,10 +5536,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5456,10 +5547,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5467,10 +5558,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5478,10 +5569,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5489,10 +5580,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5500,10 +5591,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5511,10 +5602,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5522,10 +5613,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5533,10 +5624,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5544,10 +5635,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5555,10 +5646,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5566,10 +5657,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5577,10 +5668,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5588,10 +5679,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5599,10 +5690,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5610,10 +5701,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5621,10 +5712,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5632,10 +5723,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5643,10 +5734,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5654,10 +5745,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5665,10 +5756,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5676,10 +5767,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5687,10 +5778,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5698,10 +5789,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5709,10 +5800,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5720,10 +5811,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5731,10 +5822,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5742,10 +5833,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5753,10 +5844,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5764,10 +5855,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5775,10 +5866,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5786,10 +5877,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5797,10 +5888,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5808,10 +5899,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5819,10 +5910,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5830,10 +5921,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5841,10 +5932,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5852,10 +5943,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5863,7 +5954,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5875,39 +5966,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -5917,11 +6008,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -5949,26 +6040,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5976,10 +6067,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5987,10 +6078,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5998,10 +6089,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6009,10 +6100,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6020,10 +6111,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6031,10 +6122,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6042,10 +6133,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6053,10 +6144,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6064,10 +6155,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6075,10 +6166,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6086,10 +6177,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6097,10 +6188,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6108,10 +6199,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6119,10 +6210,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6130,10 +6221,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6141,73 +6232,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289EAB5-F71C-4ACF-B305-1DEDB5499286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2A37D-3F59-408C-B6A9-F35632D8F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SysSettings.xlsx
+++ b/VerveStacks_ITA/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2A37D-3F59-408C-B6A9-F35632D8F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FEA0E-F58A-4663-8305-62176E9C4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
